--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -259,11 +259,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -293,7 +293,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,8 +304,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,107 +380,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,19 +466,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,73 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,79 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,15 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -689,56 +680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,157 +707,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -953,13 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1369,8 +1372,10 @@
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="20" spans="1:8">
       <c r="A5" s="8">
@@ -1389,11 +1394,13 @@
       <c r="E5" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="8">
@@ -1415,8 +1422,8 @@
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="8">
@@ -1438,8 +1445,8 @@
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="8">
@@ -1461,14 +1468,14 @@
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>44114</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
@@ -1476,14 +1483,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>44115</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
@@ -1491,8 +1498,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="8">
@@ -1514,8 +1521,8 @@
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
       <c r="A12" s="8">
@@ -1537,8 +1544,8 @@
       <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="8">
@@ -1560,8 +1567,8 @@
       <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
       <c r="A14" s="8">
@@ -1583,8 +1590,8 @@
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
       <c r="A15" s="8">
@@ -1606,8 +1613,8 @@
       <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="8">
@@ -1621,8 +1628,8 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="8">
@@ -1636,8 +1643,8 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="8">
@@ -1659,8 +1666,8 @@
       <c r="F18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
       <c r="A19" s="8">
@@ -1682,8 +1689,8 @@
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="8">
@@ -1705,8 +1712,8 @@
       <c r="F20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="8">
@@ -1728,8 +1735,8 @@
       <c r="F21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
       <c r="A22" s="8">
@@ -1751,8 +1758,8 @@
       <c r="F22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
       <c r="A23" s="8">
@@ -1766,8 +1773,8 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:8">
       <c r="A24" s="8">
@@ -1781,8 +1788,8 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:8">
       <c r="A25" s="8">
@@ -1804,8 +1811,8 @@
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
       <c r="A26" s="8">
@@ -1827,8 +1834,8 @@
       <c r="F26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="8">
@@ -1850,8 +1857,8 @@
       <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
       <c r="A28" s="8">
@@ -1873,8 +1880,8 @@
       <c r="F28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
       <c r="A29" s="8">
@@ -1896,8 +1903,8 @@
       <c r="F29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:8">
       <c r="A30" s="8">
@@ -1911,8 +1918,8 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -259,11 +259,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -293,12 +293,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +379,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,13 +412,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -364,70 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,25 +466,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,31 +586,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,90 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +669,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -680,6 +689,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,216 +766,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -953,16 +953,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1372,10 +1369,8 @@
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="20" spans="1:8">
       <c r="A5" s="8">
@@ -1394,13 +1389,11 @@
       <c r="E5" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="8">
@@ -1422,8 +1415,8 @@
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="8">
@@ -1445,8 +1438,8 @@
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="8">
@@ -1468,14 +1461,14 @@
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>44114</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
@@ -1483,14 +1476,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>44115</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
@@ -1498,8 +1491,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="8">
@@ -1521,8 +1514,8 @@
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
       <c r="A12" s="8">
@@ -1544,8 +1537,8 @@
       <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="8">
@@ -1567,8 +1560,8 @@
       <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
       <c r="A14" s="8">
@@ -1590,8 +1583,8 @@
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
       <c r="A15" s="8">
@@ -1613,8 +1606,8 @@
       <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="8">
@@ -1628,8 +1621,8 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="8">
@@ -1643,8 +1636,8 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="8">
@@ -1666,8 +1659,8 @@
       <c r="F18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
       <c r="A19" s="8">
@@ -1689,8 +1682,8 @@
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="8">
@@ -1712,8 +1705,8 @@
       <c r="F20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="8">
@@ -1735,8 +1728,8 @@
       <c r="F21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
       <c r="A22" s="8">
@@ -1758,8 +1751,8 @@
       <c r="F22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
       <c r="A23" s="8">
@@ -1773,8 +1766,8 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:8">
       <c r="A24" s="8">
@@ -1788,8 +1781,8 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:8">
       <c r="A25" s="8">
@@ -1811,8 +1804,8 @@
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
       <c r="A26" s="8">
@@ -1834,8 +1827,8 @@
       <c r="F26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="8">
@@ -1857,8 +1850,8 @@
       <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
       <c r="A28" s="8">
@@ -1880,8 +1873,8 @@
       <c r="F28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
       <c r="A29" s="8">
@@ -1903,8 +1896,8 @@
       <c r="F29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:8">
       <c r="A30" s="8">
@@ -1918,8 +1911,8 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -259,11 +259,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -290,6 +290,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -297,15 +313,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +367,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,98 +428,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,19 +466,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,157 +616,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,45 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -727,7 +688,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,17 +743,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,152 +771,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -953,13 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1369,8 +1372,10 @@
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="20" spans="1:8">
       <c r="A5" s="8">
@@ -1389,11 +1394,13 @@
       <c r="E5" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="8">
@@ -1415,8 +1422,8 @@
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="8">
@@ -1438,8 +1445,8 @@
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="8">
@@ -1461,14 +1468,14 @@
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>44114</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
@@ -1476,14 +1483,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>44115</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
@@ -1491,8 +1498,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="8">
@@ -1514,8 +1521,8 @@
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
       <c r="A12" s="8">
@@ -1537,8 +1544,8 @@
       <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="8">
@@ -1560,8 +1567,8 @@
       <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
       <c r="A14" s="8">
@@ -1583,8 +1590,8 @@
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
       <c r="A15" s="8">
@@ -1606,8 +1613,8 @@
       <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="8">
@@ -1621,8 +1628,8 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="8">
@@ -1636,8 +1643,8 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="8">
@@ -1659,8 +1666,8 @@
       <c r="F18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
       <c r="A19" s="8">
@@ -1682,8 +1689,8 @@
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="8">
@@ -1705,8 +1712,8 @@
       <c r="F20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="8">
@@ -1728,8 +1735,8 @@
       <c r="F21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
       <c r="A22" s="8">
@@ -1751,8 +1758,8 @@
       <c r="F22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
       <c r="A23" s="8">
@@ -1766,8 +1773,8 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:8">
       <c r="A24" s="8">
@@ -1781,8 +1788,8 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:8">
       <c r="A25" s="8">
@@ -1804,8 +1811,8 @@
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
       <c r="A26" s="8">
@@ -1827,8 +1834,8 @@
       <c r="F26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="8">
@@ -1850,8 +1857,8 @@
       <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
       <c r="A28" s="8">
@@ -1873,8 +1880,8 @@
       <c r="F28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
       <c r="A29" s="8">
@@ -1896,8 +1903,8 @@
       <c r="F29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:8">
       <c r="A30" s="8">
@@ -1911,8 +1918,8 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -96,14 +96,16 @@
   </si>
   <si>
     <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-20</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -112,19 +114,21 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
     </r>
   </si>
   <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 21-30</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -133,11 +137,31 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
     </r>
   </si>
   <si>
-    <t>API作成(crud)</t>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
   </si>
   <si>
     <r>
@@ -224,6 +248,9 @@
     </r>
   </si>
   <si>
+    <t>API作成(crud)</t>
+  </si>
+  <si>
     <t>復習</t>
   </si>
   <si>
@@ -286,13 +313,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,16 +345,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +365,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -346,7 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +410,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -384,15 +449,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,29 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -438,21 +480,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -471,6 +498,12 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -493,181 +526,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,6 +729,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -706,6 +763,50 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -725,225 +826,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -989,7 +1022,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1474,11 +1510,11 @@
       <c r="E7" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="12">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -1499,17 +1535,14 @@
       <c r="E8" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>44114</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
@@ -1521,10 +1554,10 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>44115</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
@@ -1552,8 +1585,8 @@
       <c r="E11" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>16</v>
+      <c r="F11" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1575,8 +1608,8 @@
       <c r="E12" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>17</v>
+      <c r="F12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -1599,7 +1632,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1622,7 +1655,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1645,7 +1678,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1661,7 +1694,9 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
@@ -1676,6 +1711,9 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
@@ -1697,7 +1735,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1720,7 +1758,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1743,7 +1781,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1766,7 +1804,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1789,7 +1827,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1842,7 +1880,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -1865,7 +1903,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -1888,7 +1926,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -1911,7 +1949,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -1934,7 +1972,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -1981,14 +2019,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -1998,13 +2036,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2013,44 +2051,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -96,6 +96,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-20</t>
     </r>
     <r>
@@ -119,6 +126,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 21-30</t>
     </r>
     <r>
@@ -142,6 +156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
     </r>
     <r>
@@ -315,9 +336,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -345,6 +366,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -352,14 +403,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,50 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -433,28 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -479,11 +501,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,181 +547,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,9 +752,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,22 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +820,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,66 +847,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,100 +903,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1588,7 +1609,9 @@
       <c r="F11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -1611,7 +1634,9 @@
       <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12">
+        <v>0.7</v>
+      </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -186,14 +186,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 1-21</t>
+      <t>React系列课程从零基础到项目开发实战 1-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -202,19 +204,21 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 22-47</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 16-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -223,19 +227,21 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 48-63</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 31-46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -244,19 +250,21 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 64-83</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 47-62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -265,14 +273,54 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-  </si>
-  <si>
-    <t>API作成(crud)</t>
-  </si>
-  <si>
-    <t>復習</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 63-78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 79-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
@@ -334,11 +382,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -366,9 +414,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +435,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -396,36 +473,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,75 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -547,181 +595,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +809,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -785,17 +848,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,90 +895,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,98 +954,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1046,14 +1094,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1656,7 +1701,7 @@
       <c r="E13" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="13"/>
@@ -1679,7 +1724,7 @@
       <c r="E14" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="13"/>
@@ -1702,7 +1747,7 @@
       <c r="E15" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="13"/>
@@ -1719,7 +1764,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="13"/>
@@ -1736,7 +1781,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="13"/>
@@ -1759,7 +1804,7 @@
       <c r="E18" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="13"/>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -186,6 +186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 1-15</t>
     </r>
     <r>
@@ -209,6 +216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 16-30</t>
     </r>
     <r>
@@ -232,6 +246,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 31-46</t>
     </r>
     <r>
@@ -255,6 +276,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 47-62</t>
     </r>
     <r>
@@ -278,6 +306,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 63-78</t>
     </r>
     <r>
@@ -301,6 +336,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 79-83</t>
     </r>
     <r>
@@ -382,9 +424,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -421,7 +463,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,127 +598,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -601,19 +643,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,126 +805,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -752,24 +812,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,13 +840,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,40 +904,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,17 +927,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,148 +942,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1704,7 +1746,9 @@
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -185,6 +185,9 @@
     </r>
   </si>
   <si>
+    <t>login練習</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -305,64 +308,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 63-78</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 79-83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
+    <t>React系列课程从零基础到项目开发实战 63-78・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 79-83・練習</t>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
@@ -424,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -456,6 +405,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -463,7 +419,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +463,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -492,17 +517,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,10 +533,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,75 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -637,61 +586,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,115 +736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,16 +790,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,40 +843,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,22 +872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,31 +891,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,119 +924,119 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,6 +1090,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1606,8 +1558,8 @@
         <v>44112</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f t="shared" ref="B7:B30" si="0">TEXT(A7,"aaaa")</f>
-        <v>星期四</v>
+        <f>TEXT(A7,"aaaa")</f>
+        <v>木曜日</v>
       </c>
       <c r="C7" s="10">
         <v>0.395833333333333</v>
@@ -1631,8 +1583,8 @@
         <v>44113</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期五</v>
+        <f>TEXT(A8,"aaaa")</f>
+        <v>金曜日</v>
       </c>
       <c r="C8" s="10">
         <v>0.395833333333333</v>
@@ -1651,8 +1603,8 @@
         <v>44114</v>
       </c>
       <c r="B9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>星期六</v>
+        <f>TEXT(A9,"aaaa")</f>
+        <v>土曜日</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1666,8 +1618,8 @@
         <v>44115</v>
       </c>
       <c r="B10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>星期日</v>
+        <f t="shared" ref="B10:B15" si="0">TEXT(A10,"aaaa")</f>
+        <v>日曜日</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1682,7 +1634,7 @@
       </c>
       <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>星期一</v>
+        <v>月曜日</v>
       </c>
       <c r="C11" s="10">
         <v>0.395833333333333</v>
@@ -1707,7 +1659,7 @@
       </c>
       <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>星期二</v>
+        <v>火曜日</v>
       </c>
       <c r="C12" s="10">
         <v>0.395833333333333</v>
@@ -1732,7 +1684,7 @@
       </c>
       <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>星期三</v>
+        <v>水曜日</v>
       </c>
       <c r="C13" s="10">
         <v>0.395833333333333</v>
@@ -1743,7 +1695,7 @@
       <c r="E13" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="12">
@@ -1757,7 +1709,7 @@
       </c>
       <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>星期四</v>
+        <v>木曜日</v>
       </c>
       <c r="C14" s="10">
         <v>0.395833333333333</v>
@@ -1771,7 +1723,9 @@
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
@@ -1780,7 +1734,7 @@
       </c>
       <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>星期五</v>
+        <v>金曜日</v>
       </c>
       <c r="C15" s="10">
         <v>0.395833333333333</v>
@@ -1794,7 +1748,7 @@
       <c r="F15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -1802,12 +1756,18 @@
         <v>44121</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期六</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+        <f t="shared" ref="B13:B31" si="1">TEXT(A16,"aaaa")</f>
+        <v>土曜日</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="F16" s="15" t="s">
         <v>20</v>
       </c>
@@ -1819,12 +1779,18 @@
         <v>44122</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期日</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+        <f t="shared" si="1"/>
+        <v>日曜日</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
@@ -1836,8 +1802,8 @@
         <v>44123</v>
       </c>
       <c r="B18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期一</v>
+        <f t="shared" si="1"/>
+        <v>月曜日</v>
       </c>
       <c r="C18" s="10">
         <v>0.395833333333333</v>
@@ -1859,8 +1825,8 @@
         <v>44124</v>
       </c>
       <c r="B19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期二</v>
+        <f t="shared" si="1"/>
+        <v>火曜日</v>
       </c>
       <c r="C19" s="10">
         <v>0.395833333333333</v>
@@ -1871,7 +1837,7 @@
       <c r="E19" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="13"/>
@@ -1882,8 +1848,8 @@
         <v>44125</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期三</v>
+        <f t="shared" si="1"/>
+        <v>水曜日</v>
       </c>
       <c r="C20" s="10">
         <v>0.395833333333333</v>
@@ -1905,8 +1871,8 @@
         <v>44126</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期四</v>
+        <f t="shared" si="1"/>
+        <v>木曜日</v>
       </c>
       <c r="C21" s="10">
         <v>0.395833333333333</v>
@@ -1928,8 +1894,8 @@
         <v>44127</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期五</v>
+        <f t="shared" si="1"/>
+        <v>金曜日</v>
       </c>
       <c r="C22" s="10">
         <v>0.395833333333333</v>
@@ -1951,13 +1917,21 @@
         <v>44128</v>
       </c>
       <c r="B23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期六</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+        <f t="shared" si="1"/>
+        <v>土曜日</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
@@ -1966,8 +1940,8 @@
         <v>44129</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期日</v>
+        <f t="shared" si="1"/>
+        <v>日曜日</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1981,8 +1955,8 @@
         <v>44130</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期一</v>
+        <f t="shared" si="1"/>
+        <v>月曜日</v>
       </c>
       <c r="C25" s="10">
         <v>0.395833333333333</v>
@@ -1994,7 +1968,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -2004,8 +1978,8 @@
         <v>44131</v>
       </c>
       <c r="B26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期二</v>
+        <f t="shared" si="1"/>
+        <v>火曜日</v>
       </c>
       <c r="C26" s="10">
         <v>0.395833333333333</v>
@@ -2017,7 +1991,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -2027,8 +2001,8 @@
         <v>44132</v>
       </c>
       <c r="B27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期三</v>
+        <f t="shared" si="1"/>
+        <v>水曜日</v>
       </c>
       <c r="C27" s="10">
         <v>0.395833333333333</v>
@@ -2040,7 +2014,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2050,8 +2024,8 @@
         <v>44133</v>
       </c>
       <c r="B28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期四</v>
+        <f t="shared" si="1"/>
+        <v>木曜日</v>
       </c>
       <c r="C28" s="10">
         <v>0.395833333333333</v>
@@ -2063,7 +2037,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2073,8 +2047,8 @@
         <v>44134</v>
       </c>
       <c r="B29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期五</v>
+        <f t="shared" si="1"/>
+        <v>金曜日</v>
       </c>
       <c r="C29" s="10">
         <v>0.395833333333333</v>
@@ -2086,7 +2060,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -2096,12 +2070,18 @@
         <v>44135</v>
       </c>
       <c r="B30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>星期六</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+        <f t="shared" si="1"/>
+        <v>土曜日</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -2133,14 +2113,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2150,13 +2130,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2165,44 +2145,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -373,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -405,7 +405,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,16 +427,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,60 +502,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,9 +517,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,29 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -586,13 +586,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,61 +724,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,97 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,55 +789,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +814,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -868,6 +857,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,148 +891,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,7 +1483,7 @@
         <v>44109</v>
       </c>
       <c r="B4" s="9" t="str">
-        <f>TEXT(A4,"aaaa")</f>
+        <f t="shared" ref="B4:B9" si="0">TEXT(A4,"aaaa")</f>
         <v>星期一</v>
       </c>
       <c r="C4" s="10">
@@ -1508,7 +1508,7 @@
         <v>44110</v>
       </c>
       <c r="B5" s="9" t="str">
-        <f>TEXT(A5,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
       <c r="C5" s="10">
@@ -1533,7 +1533,7 @@
         <v>44111</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f>TEXT(A6,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
       <c r="C6" s="10">
@@ -1558,7 +1558,7 @@
         <v>44112</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f>TEXT(A7,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>木曜日</v>
       </c>
       <c r="C7" s="10">
@@ -1583,7 +1583,7 @@
         <v>44113</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f>TEXT(A8,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>金曜日</v>
       </c>
       <c r="C8" s="10">
@@ -1603,7 +1603,7 @@
         <v>44114</v>
       </c>
       <c r="B9" s="17" t="str">
-        <f>TEXT(A9,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>土曜日</v>
       </c>
       <c r="C9" s="10"/>
@@ -1618,7 +1618,7 @@
         <v>44115</v>
       </c>
       <c r="B10" s="17" t="str">
-        <f t="shared" ref="B10:B15" si="0">TEXT(A10,"aaaa")</f>
+        <f t="shared" ref="B10:B15" si="1">TEXT(A10,"aaaa")</f>
         <v>日曜日</v>
       </c>
       <c r="C10" s="10"/>
@@ -1633,7 +1633,7 @@
         <v>44116</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>月曜日</v>
       </c>
       <c r="C11" s="10">
@@ -1658,7 +1658,7 @@
         <v>44117</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>火曜日</v>
       </c>
       <c r="C12" s="10">
@@ -1683,7 +1683,7 @@
         <v>44118</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>水曜日</v>
       </c>
       <c r="C13" s="10">
@@ -1708,7 +1708,7 @@
         <v>44119</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>木曜日</v>
       </c>
       <c r="C14" s="10">
@@ -1733,7 +1733,7 @@
         <v>44120</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>金曜日</v>
       </c>
       <c r="C15" s="10">
@@ -1748,7 +1748,9 @@
       <c r="F15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -1756,7 +1758,7 @@
         <v>44121</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f t="shared" ref="B13:B31" si="1">TEXT(A16,"aaaa")</f>
+        <f t="shared" ref="B13:B31" si="2">TEXT(A16,"aaaa")</f>
         <v>土曜日</v>
       </c>
       <c r="C16" s="10">
@@ -1779,7 +1781,7 @@
         <v>44122</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>日曜日</v>
       </c>
       <c r="C17" s="10">
@@ -1802,7 +1804,7 @@
         <v>44123</v>
       </c>
       <c r="B18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>月曜日</v>
       </c>
       <c r="C18" s="10">
@@ -1825,7 +1827,7 @@
         <v>44124</v>
       </c>
       <c r="B19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>火曜日</v>
       </c>
       <c r="C19" s="10">
@@ -1848,7 +1850,7 @@
         <v>44125</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>水曜日</v>
       </c>
       <c r="C20" s="10">
@@ -1871,7 +1873,7 @@
         <v>44126</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>木曜日</v>
       </c>
       <c r="C21" s="10">
@@ -1894,7 +1896,7 @@
         <v>44127</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>金曜日</v>
       </c>
       <c r="C22" s="10">
@@ -1917,7 +1919,7 @@
         <v>44128</v>
       </c>
       <c r="B23" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>土曜日</v>
       </c>
       <c r="C23" s="10">
@@ -1940,7 +1942,7 @@
         <v>44129</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>日曜日</v>
       </c>
       <c r="C24" s="10"/>
@@ -1955,7 +1957,7 @@
         <v>44130</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>月曜日</v>
       </c>
       <c r="C25" s="10">
@@ -1978,7 +1980,7 @@
         <v>44131</v>
       </c>
       <c r="B26" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>火曜日</v>
       </c>
       <c r="C26" s="10">
@@ -2001,7 +2003,7 @@
         <v>44132</v>
       </c>
       <c r="B27" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>水曜日</v>
       </c>
       <c r="C27" s="10">
@@ -2024,7 +2026,7 @@
         <v>44133</v>
       </c>
       <c r="B28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>木曜日</v>
       </c>
       <c r="C28" s="10">
@@ -2047,7 +2049,7 @@
         <v>44134</v>
       </c>
       <c r="B29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>金曜日</v>
       </c>
       <c r="C29" s="10">
@@ -2070,7 +2072,7 @@
         <v>44135</v>
       </c>
       <c r="B30" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>土曜日</v>
       </c>
       <c r="C30" s="10">

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -405,9 +405,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,17 +470,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,28 +511,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,25 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,36 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -586,181 +586,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,11 +789,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,17 +819,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,15 +835,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,11 +856,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,153 +877,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1770,9 +1770,6 @@
       <c r="E16" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>20</v>
-      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
@@ -1794,7 +1791,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1817,7 +1814,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1840,7 +1837,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1862,8 +1859,8 @@
       <c r="E20" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>24</v>
+      <c r="F20" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1886,7 +1883,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1909,7 +1906,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1932,7 +1929,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -1945,10 +1942,18 @@
         <f t="shared" si="2"/>
         <v>日曜日</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -249,14 +249,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 31-46</t>
+      <t>React系列课程从零基础到项目开发实战 31-51</t>
     </r>
     <r>
       <rPr>
@@ -278,40 +271,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 47-62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-  </si>
-  <si>
-    <t>React系列课程从零基础到项目开发实战 63-78・練習</t>
-  </si>
-  <si>
-    <t>React系列课程从零基础到项目开发实战 79-83・練習</t>
+    <t>React系列课程从零基础到项目开发实战 52-72・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 73-83・練習</t>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
@@ -373,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -405,7 +368,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,14 +435,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -440,7 +464,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,14 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -472,81 +504,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -586,181 +549,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,36 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -839,6 +772,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -854,11 +820,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,162 +849,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,8 +1378,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1790,9 +1753,7 @@
       <c r="E17" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
@@ -1814,7 +1775,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1837,7 +1798,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1860,7 +1821,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1883,7 +1844,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1906,7 +1867,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1929,7 +1890,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -1952,7 +1913,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -1975,7 +1936,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -1998,7 +1959,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -2021,7 +1982,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2044,7 +2005,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2067,7 +2028,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -2120,14 +2081,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2137,13 +2098,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2152,44 +2113,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -249,6 +249,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 31-51</t>
     </r>
     <r>
@@ -271,10 +278,10 @@
     </r>
   </si>
   <si>
-    <t>React系列课程从零基础到项目开发实战 52-72・練習</t>
-  </si>
-  <si>
-    <t>React系列课程从零基础到项目开发实战 73-83・練習</t>
+    <t>React系列课程从零基础到项目开发实战 52-67・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 68-83・練習</t>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
@@ -336,11 +343,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -368,7 +375,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -382,6 +463,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -390,126 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -549,181 +556,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,44 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -801,6 +770,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,17 +813,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,153 +847,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1048,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -343,11 +343,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -375,6 +375,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -388,29 +464,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,70 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,17 +510,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,31 +556,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,55 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,85 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,36 +755,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,17 +785,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -850,159 +809,200 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1055,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1385,8 +1385,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1784,7 +1784,9 @@
       <c r="F18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -219,14 +219,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 16-30</t>
+      <t>React系列课程从零基础到项目开发实战 16-24</t>
     </r>
     <r>
       <rPr>
@@ -249,14 +242,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 31-51</t>
+      <t>React系列课程从零基础到项目开发实战 25-41</t>
     </r>
     <r>
       <rPr>
@@ -278,28 +264,13 @@
     </r>
   </si>
   <si>
-    <t>React系列课程从零基础到项目开发实战 52-67・練習</t>
-  </si>
-  <si>
-    <t>React系列课程从零基础到项目开发实战 68-83・練習</t>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-  </si>
-  <si>
-    <t>詳細設計作成</t>
-  </si>
-  <si>
-    <t>プログラム作成</t>
-  </si>
-  <si>
-    <t>単体試験・結合試験</t>
-  </si>
-  <si>
-    <t>発表会を行う</t>
+    <t>React系列课程从零基础到项目开发实战 42-55・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 56-73・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 74-83・練習</t>
   </si>
   <si>
     <t>【尚硅谷】NodeJS全套教程</t>
@@ -343,11 +314,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -375,9 +346,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,6 +367,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -397,6 +390,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -405,6 +428,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -413,88 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -502,21 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -556,181 +527,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,41 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -829,6 +765,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,153 +801,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1055,7 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1385,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1809,7 +1780,9 @@
       <c r="F19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
@@ -1852,7 +1825,7 @@
       <c r="E21" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="13"/>
@@ -1875,9 +1848,7 @@
       <c r="E22" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
@@ -1898,9 +1869,7 @@
       <c r="E23" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
@@ -1921,9 +1890,7 @@
       <c r="E24" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
@@ -1944,9 +1911,7 @@
       <c r="E25" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
@@ -1967,9 +1932,7 @@
       <c r="E26" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
@@ -1990,9 +1953,7 @@
       <c r="E27" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
@@ -2013,9 +1974,7 @@
       <c r="E28" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
@@ -2036,9 +1995,7 @@
       <c r="E29" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
@@ -2090,14 +2047,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2107,13 +2064,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2122,44 +2079,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -219,6 +219,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 16-24</t>
     </r>
     <r>
@@ -242,6 +249,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 25-41</t>
     </r>
     <r>
@@ -267,10 +281,10 @@
     <t>React系列课程从零基础到项目开发实战 42-55・練習</t>
   </si>
   <si>
-    <t>React系列课程从零基础到项目开发实战 56-73・練習</t>
-  </si>
-  <si>
-    <t>React系列课程从零基础到项目开发实战 74-83・練習</t>
+    <t>React系列课程从零基础到项目开发实战 56-71・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 72-83・練習</t>
   </si>
   <si>
     <t>【尚硅谷】NodeJS全套教程</t>
@@ -315,10 +329,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -346,6 +360,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -353,7 +374,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,45 +458,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,74 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -527,79 +541,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,91 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +740,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,39 +828,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -801,44 +841,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,16 +861,16 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,115 +879,115 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1026,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">

--- a/進捗/10月学習計画書_季思阳.xlsx
+++ b/進捗/10月学習計画書_季思阳.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -281,7 +281,10 @@
     <t>React系列课程从零基础到项目开发实战 42-55・練習</t>
   </si>
   <si>
-    <t>React系列课程从零基础到项目开发实战 56-71・練習</t>
+    <t>React系列课程从零基础到项目开发实战 56-65・練習</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战 66-71・練習</t>
   </si>
   <si>
     <t>React系列课程从零基础到项目开发实战 72-83・練習</t>
@@ -329,10 +332,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -360,13 +363,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -380,10 +376,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,15 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +469,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -449,36 +498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -486,22 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -541,13 +544,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,163 +658,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,35 +747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,21 +769,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,15 +798,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -846,148 +849,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1040,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1819,7 +1822,9 @@
       <c r="F20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
       <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
@@ -1862,7 +1867,9 @@
       <c r="E22" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
@@ -2061,14 +2068,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2078,13 +2085,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2093,44 +2100,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
